--- a/en/application_framework/application_framework/libraries/images/permission_check/images.xlsx
+++ b/en/application_framework/application_framework/libraries/images/permission_check/images.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikK79798\Documents\nablarch-relation\nablarch-document\en\application_framework\application_framework\libraries\images\permission_check\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739197E0-1326-4179-AF35-B127532E6EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580"/>
+    <workbookView xWindow="345" yWindow="510" windowWidth="25140" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="permission_check" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -23,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,6 +105,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -110,7 +129,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="角丸四角形 50"/>
+        <xdr:cNvPr id="51" name="角丸四角形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -144,12 +169,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>グループ</a:t>
+            <a:t>Groups</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -170,8 +201,15 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="51" idx="3"/>
           <a:endCxn id="34" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -220,7 +258,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="角丸四角形 32"/>
+        <xdr:cNvPr id="33" name="角丸四角形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -254,12 +298,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ユーザ</a:t>
+            <a:t>User</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -280,7 +330,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="角丸四角形 33"/>
+        <xdr:cNvPr id="34" name="角丸四角形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -314,12 +370,42 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Permission</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>認可単位</a:t>
+            <a:t>unit</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -340,7 +426,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="角丸四角形 34"/>
+        <xdr:cNvPr id="35" name="角丸四角形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -374,15 +466,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>リクエスト</a:t>
+            <a:t>Request</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -404,7 +498,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="3"/>
           <a:endCxn id="34" idx="2"/>
@@ -454,8 +554,15 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="33" idx="0"/>
           <a:endCxn id="51" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -505,7 +612,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直線矢印コネクタ 52"/>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="34" idx="3"/>
           <a:endCxn id="35" idx="1"/>
@@ -555,7 +668,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="角丸四角形 58"/>
+        <xdr:cNvPr id="59" name="角丸四角形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -624,7 +743,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="角丸四角形 60"/>
+        <xdr:cNvPr id="61" name="角丸四角形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -693,7 +818,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="角丸四角形 61"/>
+        <xdr:cNvPr id="62" name="角丸四角形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -762,7 +893,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="角丸四角形 62"/>
+        <xdr:cNvPr id="63" name="角丸四角形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -820,7 +957,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -862,7 +999,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -895,9 +1032,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -930,6 +1084,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1105,12 +1276,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
